--- a/medicine/Enfance/Audrey_Françaix/Audrey_Françaix.xlsx
+++ b/medicine/Enfance/Audrey_Françaix/Audrey_Françaix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Audrey_Fran%C3%A7aix</t>
+          <t>Audrey_Françaix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Audrey Françaix, née le 27 novembre 1980 à Aniche (Nord), est une écrivaine française, auteur de livres pour la jeunesse, également romancière, scénariste de jeux vidéo et éditrice.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Audrey_Fran%C3%A7aix</t>
+          <t>Audrey_Françaix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Audrey Françaix est née le 27 novembre 1980 dans le nord de la France. Elle publie son premier roman, Le Cercle des Elfes, en mars 2000 puis, en 2004, elle fonde avec son époux Pierre Grimbert les Éditions Octobre. Elle écrit surtout des romans de fantasy dont certains à destination de la jeunesse.
 Elle est la sœur de Pascal Françaix, lui aussi écrivain.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Audrey_Fran%C3%A7aix</t>
+          <t>Audrey_Françaix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,27 +559,212 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Fantasy
-Le Cercle des Elfes, Degliame, 2000  (ISBN 2-914088-11-6)
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Cercle des Elfes, Degliame, 2000  (ISBN 2-914088-11-6)
 Les Fées de marbre, Degliame, 2001  (ISBN 2-914088-14-0)
 Le Tribunal des Follets, Degliame, 2001  (ISBN 2-914088-20-5)
 Halloween, le Club des Monstres, Degliame, 2002  (ISBN 2-914088-29-9)
-Monstre en cavale ! : Baba Yaga la sorcière givrée, Octobre, 2014  (ISBN 978-2-91562-145-7)
-Romans de fantasy
-Le Cycle de la chair
-la Chair et l’Acier, Octobre, 2004  (ISBN 2-915-62101-2)
+Monstre en cavale ! : Baba Yaga la sorcière givrée, Octobre, 2014  (ISBN 978-2-91562-145-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Audrey_Françaix</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Audrey_Fran%C3%A7aix</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans de fantasy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Le Cycle de la chair</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>la Chair et l’Acier, Octobre, 2004  (ISBN 2-915-62101-2)
 la Chair et l’Ambre, Octobre, 2005  (ISBN 2-915-62103-9)
-la Chair et le Soufre, Octobre, 2006  (ISBN 2-915-62111-X)
-Série Le Festin d’Ohmelle
-Bière et champignons, Octobre, 2007  (ISBN 978-2915621198)
-Cidre et marmelade, Octobre, 2009  (ISBN 978-2915621259)
-Roman
-Le Club des apprentis criminels, Octobre, 2012
-Roman Feel Good
-À la Reconquête de l'Ouest, Octobre, 2020  (ISBN 978-2-915621-76-1)
-Album Jeunesse
-Princesse Escargot, le Texte et la Parole, 2017  (ISBN 978-2955673522)</t>
+la Chair et le Soufre, Octobre, 2006  (ISBN 2-915-62111-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Audrey_Françaix</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Audrey_Fran%C3%A7aix</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans de fantasy</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Le Festin d’Ohmelle</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bière et champignons, Octobre, 2007  (ISBN 978-2915621198)
+Cidre et marmelade, Octobre, 2009  (ISBN 978-2915621259)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Audrey_Françaix</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Audrey_Fran%C3%A7aix</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Club des apprentis criminels, Octobre, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Audrey_Françaix</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Audrey_Fran%C3%A7aix</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Roman Feel Good</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>À la Reconquête de l'Ouest, Octobre, 2020  (ISBN 978-2-915621-76-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Audrey_Françaix</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Audrey_Fran%C3%A7aix</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Album Jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Princesse Escargot, le Texte et la Parole, 2017  (ISBN 978-2955673522)</t>
         </is>
       </c>
     </row>
